--- a/M2saas.Selenium/projects/M2Saas.Crm.Website/Models/TestData/LoginData.xlsx
+++ b/M2saas.Selenium/projects/M2Saas.Crm.Website/Models/TestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ripon\TestingAutomation\m2saas.Selenium\M2saas.Selenium\projects\M2Saas.Crm.Website\Models\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEE947C-B48D-4B78-95D3-C3C336C3DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8FA9DD-1BEE-4099-8CB1-AFD8EB183B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>KawranBazar12#</t>
+  </si>
+  <si>
+    <t>ripon5857@onnorokom.com</t>
+  </si>
+  <si>
+    <t>123456#</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +396,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
